--- a/福山/ドキュメント/ガントチャート（プログラム）.xlsx
+++ b/福山/ドキュメント/ガントチャート（プログラム）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -206,6 +206,12 @@
   <si>
     <t>ブラッシュアップ</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/21(火) β版できあがり、</t>
+  </si>
+  <si>
+    <t>3/22～24 ブラッシュアップ</t>
   </si>
 </sst>
 </file>
@@ -653,19 +659,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>42803</v>
@@ -694,8 +701,29 @@
       <c r="J1" s="2">
         <v>42811</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25">
+      <c r="K1" s="2">
+        <v>42812</v>
+      </c>
+      <c r="L1" s="2">
+        <v>42813</v>
+      </c>
+      <c r="M1" s="2">
+        <v>42814</v>
+      </c>
+      <c r="N1" s="2">
+        <v>42815</v>
+      </c>
+      <c r="O1" s="2">
+        <v>42816</v>
+      </c>
+      <c r="P1" s="2">
+        <v>42817</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -704,15 +732,22 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="M2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,158 +756,241 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="M3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -880,249 +998,375 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="7" t="s">
-        <v>23</v>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8" t="s">
-        <v>24</v>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.25">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9" t="s">
-        <v>9</v>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.25">
-      <c r="A31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="4"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/福山/ドキュメント/ガントチャート（プログラム）.xlsx
+++ b/福山/ドキュメント/ガントチャート（プログラム）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onsokunogyoniku\Desktop\xeenインターン\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -212,6 +212,170 @@
   </si>
   <si>
     <t>3/22～24 ブラッシュアップ</t>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動完成</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常攻撃完成</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　完成</t>
+    <rPh sb="1" eb="3">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30分</t>
+    <rPh sb="2" eb="3">
+      <t>プン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なめる完成</t>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱パンチ完成</t>
+    <rPh sb="0" eb="1">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強パンチ完成</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>64時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3段階目完成</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１段目完成</t>
+    <rPh sb="1" eb="3">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -281,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +467,25 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -327,8 +508,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,45 +658,144 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="60% - アクセント 2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - アクセント 5" xfId="6" builtinId="48"/>
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
     <cellStyle name="アクセント 2" xfId="2" builtinId="33"/>
+    <cellStyle name="アクセント 5" xfId="5" builtinId="45"/>
     <cellStyle name="アクセント 6" xfId="3" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -659,716 +1075,832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
+    <row r="1" spans="1:19" ht="14.25" thickBot="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="27">
         <v>42803</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="27">
         <v>42804</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="14">
         <v>42805</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="14">
         <v>42806</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="14">
         <v>42807</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="14">
         <v>42808</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="14">
         <v>42809</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="14">
         <v>42810</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="14">
         <v>42811</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="14">
         <v>42812</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="14">
         <v>42813</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="14">
         <v>42814</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="14">
         <v>42815</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="14">
         <v>42816</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="14">
         <v>42817</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="14">
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" t="s">
+      <c r="B2" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="S2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="S3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="S3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="S5" s="5" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="S5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:19" s="3" customFormat="1">
+      <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
       <c r="S6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:19" s="3" customFormat="1">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1">
+      <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="S8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="S8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="17.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" ht="17.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" s="3" customFormat="1">
+      <c r="A21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" s="3" customFormat="1">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" s="3" customFormat="1">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.25" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" s="3" customFormat="1">
+      <c r="A26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" s="3" customFormat="1">
+      <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A29" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="25"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" s="3" customFormat="1">
+      <c r="A30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" s="3" customFormat="1">
+      <c r="A31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
